--- a/TCSiON_PROJECT/src/main/resources/TestDataStage1.xlsx
+++ b/TCSiON_PROJECT/src/main/resources/TestDataStage1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>TestCase</t>
   </si>
@@ -80,12 +81,6 @@
   </si>
   <si>
     <t>Trivandrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country </t>
-  </si>
-  <si>
-    <t>India</t>
   </si>
   <si>
     <t>Kerala</t>
@@ -141,10 +136,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -453,12 +454,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
@@ -527,17 +528,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
@@ -555,14 +555,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -578,6 +576,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
